--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blueswen/project/ChineseMed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/ChineseMed/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="2"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="國家編碼" sheetId="1" r:id="rId1"/>
     <sheet name="品項清單" sheetId="2" r:id="rId2"/>
-    <sheet name="資料" sheetId="3" r:id="rId3"/>
+    <sheet name="子母清單" sheetId="4" r:id="rId3"/>
+    <sheet name="資料" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2883" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2885" uniqueCount="550">
   <si>
     <r>
       <rPr>
@@ -3584,6 +3585,14 @@
   </si>
   <si>
     <t>XK</t>
+  </si>
+  <si>
+    <t>主類別</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子類別</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4076,7 +4085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -5069,8 +5078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6196,10 +6205,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G780"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
